--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>CONTENT</t>
   </si>
@@ -25,9 +25,15 @@
     <t>PVALUE</t>
   </si>
   <si>
+    <t>FEATURE</t>
+  </si>
+  <si>
     <t>CONTENT_DISPLAY</t>
   </si>
   <si>
+    <t>STAT_COUNT</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -41,6 +47,12 @@
   </si>
   <si>
     <t>Hispanic</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>ETHNICITY</t>
   </si>
   <si>
     <t>Female</t>
@@ -404,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,90 +435,126 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1066056711036824</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D2">
-        <v>4.844860339705209E-18</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.0228967132537099</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>0.5056944086065681</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06518080107097415</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D4">
-        <v>0.003440379652595433</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06532056862537527</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D5">
-        <v>0.002331580381575777</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.005030745184045785</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D6">
-        <v>0.7728537141022239</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -450,10 +450,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1066556259052317</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D2">
-        <v>7.811888321013099E-18</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D3">
-        <v>0.4311678685797878</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.06427308807355728</v>
+        <v>-0.01258219199560887</v>
       </c>
       <c r="D4">
-        <v>0.003996397776674821</v>
+        <v>0.5574637600303601</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.06254012411990473</v>
+        <v>0.0315936306883336</v>
       </c>
       <c r="D5">
-        <v>0.00400754966092007</v>
+        <v>0.1287752015265597</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.0001413464189845889</v>
+        <v>-0.01316119509432882</v>
       </c>
       <c r="D6">
-        <v>0.9937732000825565</v>
+        <v>0.450224980821133</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,13 +444,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>-0.1068663278366113</v>
@@ -456,21 +462,24 @@
         <v>3.7342706572684E-19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-0.04802493060300515</v>
@@ -479,21 +488,24 @@
         <v>0.1645936742278324</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>-0.01258219199560887</v>
@@ -502,21 +514,24 @@
         <v>0.5574637600303601</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.0315936306883336</v>
@@ -525,21 +540,24 @@
         <v>0.1287752015265597</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>-0.01316119509432882</v>
@@ -548,13 +566,16 @@
         <v>0.450224980821133</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1068663278366113</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D2">
-        <v>3.7342706572684E-19</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04802493060300515</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>0.1645936742278324</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.01258219199560887</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D4">
-        <v>0.5574637600303601</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.0315936306883336</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D5">
-        <v>0.1287752015265597</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -546,10 +546,10 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.01316119509432882</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D6">
-        <v>0.450224980821133</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1066556259052317</v>
+        <v>-0.1080968759434591</v>
       </c>
       <c r="D2">
-        <v>7.811888321013099E-18</v>
+        <v>1.495658553780395E-18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04122982919626061</v>
       </c>
       <c r="D3">
-        <v>0.4311678685797878</v>
+        <v>0.2148589547473078</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.06427308807355728</v>
+        <v>-0.05555256826084561</v>
       </c>
       <c r="D4">
-        <v>0.003996397776674821</v>
+        <v>0.0111585719945238</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06254012411990473</v>
+        <v>-0.06032822218108549</v>
       </c>
       <c r="D5">
-        <v>0.00400754966092007</v>
+        <v>0.004388391755088156</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0001413464189845889</v>
+        <v>0.004388556155443771</v>
       </c>
       <c r="D6">
-        <v>0.9937732000825565</v>
+        <v>0.8020175098606849</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.1080968759434591</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D2">
-        <v>1.495658553780395E-18</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.04122982919626061</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>0.2148589547473078</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.05555256826084561</v>
+        <v>-0.06427308807355728</v>
       </c>
       <c r="D4">
-        <v>0.0111585719945238</v>
+        <v>0.003996397776674821</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.06032822218108549</v>
+        <v>-0.06254012411990473</v>
       </c>
       <c r="D5">
-        <v>0.004388391755088156</v>
+        <v>0.00400754966092007</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004388556155443771</v>
+        <v>0.0001413464189845889</v>
       </c>
       <c r="D6">
-        <v>0.8020175098606849</v>
+        <v>0.9937732000825565</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/initial_result.xlsx
+++ b/initial_result.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
